--- a/options/manual/files/sales.xlsx
+++ b/options/manual/files/sales.xlsx
@@ -65,16 +65,16 @@
     <t xml:space="preserve">Tags</t>
   </si>
   <si>
-    <t xml:space="preserve">A,B,C</t>
+    <t xml:space="preserve">Tag One,Tag Two,Tag Three</t>
   </si>
   <si>
-    <t xml:space="preserve">A,B</t>
+    <t xml:space="preserve">Tag One,Tag Two</t>
   </si>
   <si>
-    <t xml:space="preserve">A,C,D</t>
+    <t xml:space="preserve">Tag One,Tag Three,Tag Four</t>
   </si>
   <si>
-    <t xml:space="preserve">C,D,E</t>
+    <t xml:space="preserve">Tag Three,Tag Four,Another (but long) Tag Four</t>
   </si>
 </sst>
 </file>
@@ -84,7 +84,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\Thh:mm:ss\Z"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD\THH:MM:SS\Z"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -167,30 +167,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="G20 F8"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -207,7 +208,7 @@
       </c>
       <c r="B2" s="1" t="n">
         <f aca="true">RANDBETWEEN(25,35) + RAND()</f>
-        <v>26.792544757423</v>
+        <v>27.9028461959752</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -216,7 +217,7 @@
       </c>
       <c r="B3" s="1" t="n">
         <f aca="true">RANDBETWEEN(25,35) + RAND()</f>
-        <v>29.6606310808482</v>
+        <v>31.6863335612043</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -225,7 +226,7 @@
       </c>
       <c r="B4" s="1" t="n">
         <f aca="true">RANDBETWEEN(25,35) + RAND()</f>
-        <v>30.2885566223767</v>
+        <v>34.2359129531051</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -234,7 +235,7 @@
       </c>
       <c r="B5" s="1" t="n">
         <f aca="true">RANDBETWEEN(25,35) + RAND()</f>
-        <v>35.7787166941952</v>
+        <v>35.0434427854943</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,7 +244,7 @@
       </c>
       <c r="B6" s="1" t="n">
         <f aca="true">RANDBETWEEN(25,35) + RAND()</f>
-        <v>33.7594836674485</v>
+        <v>25.0911648768731</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -252,7 +253,7 @@
       </c>
       <c r="B7" s="1" t="n">
         <f aca="true">RANDBETWEEN(25,35) + RAND()</f>
-        <v>25.1115336638681</v>
+        <v>30.3351988190151</v>
       </c>
     </row>
   </sheetData>
@@ -267,22 +268,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>8</v>
       </c>
@@ -326,7 +331,7 @@
       </c>
       <c r="F2" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>39.7888092847784</v>
+        <v>50.7188797359134</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>14</v>
@@ -355,7 +360,7 @@
       </c>
       <c r="F3" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>51.4214926685152</v>
+        <v>60.5663454012383</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>15</v>
@@ -384,7 +389,7 @@
       </c>
       <c r="F4" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>35.6943975787215</v>
+        <v>58.9545504835085</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>16</v>
@@ -409,11 +414,11 @@
       </c>
       <c r="E5" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>44.0144638581814</v>
+        <v>58.9198202845987</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>17</v>
@@ -442,7 +447,7 @@
       </c>
       <c r="F6" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>54.1151929373396</v>
+        <v>37.0781135585143</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>17</v>
@@ -467,11 +472,11 @@
       </c>
       <c r="E7" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>46.9136971070111</v>
+        <v>47.7474992226776</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>15</v>
@@ -500,7 +505,7 @@
       </c>
       <c r="F8" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>55.3422623977171</v>
+        <v>46.247219611241</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>16</v>
@@ -529,7 +534,7 @@
       </c>
       <c r="F9" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>54.1597714270235</v>
+        <v>55.616276647669</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>17</v>
@@ -558,7 +563,7 @@
       </c>
       <c r="F10" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>52.2236725940964</v>
+        <v>54.4155732394818</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>14</v>
@@ -587,7 +592,7 @@
       </c>
       <c r="F11" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>41.9179633987133</v>
+        <v>45.5633769537212</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>17</v>
@@ -612,11 +617,11 @@
       </c>
       <c r="E12" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>37.3787377173343</v>
+        <v>56.9811187852357</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>15</v>
@@ -641,11 +646,11 @@
       </c>
       <c r="E13" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>36.0774821329281</v>
+        <v>40.7587423501728</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>16</v>
@@ -670,11 +675,11 @@
       </c>
       <c r="E14" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>55.9772781349115</v>
+        <v>47.7862412965303</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>14</v>
@@ -703,7 +708,7 @@
       </c>
       <c r="F15" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>39.8540215461184</v>
+        <v>57.8578248317852</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>17</v>
@@ -732,7 +737,7 @@
       </c>
       <c r="F16" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>48.1968745510221</v>
+        <v>53.4405194824189</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>17</v>
@@ -761,7 +766,7 @@
       </c>
       <c r="F17" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>36.2861759318338</v>
+        <v>52.3423988792077</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>15</v>
@@ -790,7 +795,7 @@
       </c>
       <c r="F18" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>53.353393515971</v>
+        <v>38.9101831476146</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>16</v>
@@ -819,7 +824,7 @@
       </c>
       <c r="F19" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>53.5022707571566</v>
+        <v>54.6670619915421</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>14</v>
@@ -848,7 +853,7 @@
       </c>
       <c r="F20" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>39.5538803086286</v>
+        <v>48.8639955798512</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>17</v>
@@ -873,11 +878,11 @@
       </c>
       <c r="E21" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>43.3492045028665</v>
+        <v>59.4970001196011</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>15</v>
@@ -906,7 +911,7 @@
       </c>
       <c r="F22" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>58.9481828886879</v>
+        <v>54.9545714921644</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>17</v>
@@ -935,7 +940,7 @@
       </c>
       <c r="F23" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>51.20306140497</v>
+        <v>56.9364928381216</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>17</v>
@@ -960,11 +965,11 @@
       </c>
       <c r="E24" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>53.726120981996</v>
+        <v>35.4302336503125</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>14</v>
@@ -993,7 +998,7 @@
       </c>
       <c r="F25" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>56.0110568273199</v>
+        <v>42.4959139301709</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>16</v>
@@ -1018,11 +1023,11 @@
       </c>
       <c r="E26" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>42.6879786420806</v>
+        <v>48.3256740660951</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>17</v>
@@ -1047,11 +1052,11 @@
       </c>
       <c r="E27" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>55.7621400146166</v>
+        <v>44.2004542875647</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>17</v>
@@ -1080,7 +1085,7 @@
       </c>
       <c r="F28" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>43.2513900549113</v>
+        <v>37.4224091419949</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>15</v>
@@ -1105,11 +1110,11 @@
       </c>
       <c r="E29" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>58.4469320587892</v>
+        <v>45.7258973451294</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>14</v>
@@ -1138,7 +1143,7 @@
       </c>
       <c r="F30" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>55.746338902115</v>
+        <v>56.5727415291169</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>17</v>
@@ -1167,7 +1172,7 @@
       </c>
       <c r="F31" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>58.5596108433124</v>
+        <v>49.3866720019679</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>16</v>
@@ -1192,11 +1197,11 @@
       </c>
       <c r="E32" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>42.3375013449711</v>
+        <v>35.37152104157</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>15</v>
@@ -1225,7 +1230,7 @@
       </c>
       <c r="F33" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>40.5840031002358</v>
+        <v>46.0555402233141</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>14</v>
@@ -1254,7 +1259,7 @@
       </c>
       <c r="F34" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>50.6915207625351</v>
+        <v>54.7351803429145</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>17</v>
@@ -1283,7 +1288,7 @@
       </c>
       <c r="F35" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>53.8851728448709</v>
+        <v>46.488559366803</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>15</v>
@@ -1308,11 +1313,11 @@
       </c>
       <c r="E36" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>40.7816588561311</v>
+        <v>52.8109894773075</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>17</v>
@@ -1341,7 +1346,7 @@
       </c>
       <c r="F37" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>54.554109902646</v>
+        <v>46.4415276705104</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>14</v>
@@ -1370,7 +1375,7 @@
       </c>
       <c r="F38" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>48.2974147850383</v>
+        <v>53.2073514035996</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>16</v>
@@ -1399,7 +1404,7 @@
       </c>
       <c r="F39" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>46.2483927473616</v>
+        <v>38.0321533515761</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>15</v>
@@ -1428,7 +1433,7 @@
       </c>
       <c r="F40" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>54.2127947018231</v>
+        <v>54.3526831482788</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>16</v>
@@ -1453,11 +1458,11 @@
       </c>
       <c r="E41" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>54.6455409941759</v>
+        <v>43.1094408460685</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>17</v>
@@ -1486,7 +1491,7 @@
       </c>
       <c r="F42" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>45.7422923176675</v>
+        <v>46.8541806846349</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>14</v>
@@ -1515,7 +1520,7 @@
       </c>
       <c r="F43" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>58.5598458452623</v>
+        <v>35.4473865891493</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>15</v>
@@ -1544,7 +1549,7 @@
       </c>
       <c r="F44" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>42.4366647757333</v>
+        <v>59.2443107236693</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>17</v>
@@ -1573,7 +1578,7 @@
       </c>
       <c r="F45" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>43.5797710748776</v>
+        <v>42.2886205247907</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>17</v>
@@ -1602,7 +1607,7 @@
       </c>
       <c r="F46" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>45.7556040857556</v>
+        <v>51.7017499343564</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>14</v>
@@ -1631,7 +1636,7 @@
       </c>
       <c r="F47" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>36.6088811433458</v>
+        <v>55.6788576162587</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>17</v>
@@ -1656,11 +1661,11 @@
       </c>
       <c r="E48" s="0" t="n">
         <f aca="true">RAND() &gt; 0.8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>39.6430646313067</v>
+        <v>55.2441539649054</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>15</v>
@@ -1689,7 +1694,7 @@
       </c>
       <c r="F49" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>40.7545264098671</v>
+        <v>60.0943930698969</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>17</v>
@@ -1718,7 +1723,7 @@
       </c>
       <c r="F50" s="1" t="n">
         <f aca="true">RANDBETWEEN(35, 60) + RAND()</f>
-        <v>45.4333248541508</v>
+        <v>41.8290384737731</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>14</v>
